--- a/inputs/shs_stage1_mgs.xlsx
+++ b/inputs/shs_stage1_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -1927,7 +1927,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="B47 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2136,8 +2136,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="B47 C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2581,8 +2581,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3103,7 +3103,7 @@
         <v>144</v>
       </c>
       <c r="B47" s="18" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>145</v>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="B47 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3782,7 +3782,7 @@
   <dimension ref="A1:AMI123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="B47 L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21379,7 +21379,7 @@
   <dimension ref="A1:AMG36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="B47 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
